--- a/MI_Otoliths.xlsx
+++ b/MI_Otoliths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Documents\Constraining FMR Mesopelagic\Metadata\Sample Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21402671-1107-4B41-B8C9-0FB6060EAC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4779F74E-C911-4FDA-985F-B3BA185633A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1E661B68-B576-4055-810A-24013F97BEA4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Trawl:</t>
   </si>
@@ -100,13 +100,52 @@
   </si>
   <si>
     <t>MINK002</t>
+  </si>
+  <si>
+    <t>MINK003</t>
+  </si>
+  <si>
+    <t>MINK004</t>
+  </si>
+  <si>
+    <t>MINK005</t>
+  </si>
+  <si>
+    <t>MINK006</t>
+  </si>
+  <si>
+    <t>MINK007</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>MIGT002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +165,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -469,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797E0AC3-B325-484D-9D39-0D985993F19D}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,7 +644,164 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>120</v>
+      </c>
+      <c r="D5">
+        <v>21.84</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>130</v>
+      </c>
+      <c r="D6">
+        <v>28.86</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>125</v>
+      </c>
+      <c r="D7">
+        <v>24.3</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>109</v>
+      </c>
+      <c r="D8">
+        <v>16.97</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>119</v>
+      </c>
+      <c r="D9">
+        <v>16.32</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
